--- a/testing/webapp/web app login testcase.xlsx
+++ b/testing/webapp/web app login testcase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="235">
   <si>
     <t>Test Plans</t>
   </si>
@@ -1174,55 +1174,73 @@
     </r>
   </si>
   <si>
-    <t>enter a valid email address and a valid password used in Yammer to login</t>
-  </si>
-  <si>
-    <t>system should awllow the user to login if they are in HR</t>
-  </si>
-  <si>
     <t>Web application login</t>
   </si>
   <si>
-    <t>enter an invalid email address and a valid password used in Yammer to login</t>
-  </si>
-  <si>
-    <t>enter a valid email address and an invalid password in Yammer to login</t>
-  </si>
-  <si>
     <t>system should not allow th user to the home page</t>
   </si>
   <si>
     <t>system should not allow the user to login to the home page</t>
   </si>
   <si>
-    <t>enter invalid email address and invalid password to login with Yammer</t>
-  </si>
-  <si>
     <t>system should not allow user to login to home page</t>
   </si>
   <si>
-    <t>press login in Yammer with email and pass word not entered</t>
-  </si>
-  <si>
     <t>the system should not allow the user to login to home page</t>
   </si>
   <si>
-    <t xml:space="preserve">press login in the wab app login page </t>
-  </si>
-  <si>
     <t>system should take the user to the login page</t>
   </si>
   <si>
-    <t>click the log off button and click to login again</t>
-  </si>
-  <si>
-    <t>system allows user to login</t>
-  </si>
-  <si>
-    <t>system does not allow the user to login</t>
-  </si>
-  <si>
     <t>system denies login</t>
+  </si>
+  <si>
+    <t>The system should redirect to the login page</t>
+  </si>
+  <si>
+    <t>Enter a valid email address and a valid password used in Yammer to login</t>
+  </si>
+  <si>
+    <t>Click the log off button and click to login again</t>
+  </si>
+  <si>
+    <t>Enter an invalid email address and a valid password used in Yammer to login</t>
+  </si>
+  <si>
+    <t>Enter a valid email address and an invalid password in Yammer to login</t>
+  </si>
+  <si>
+    <t>Enter invalid email address and invalid password to login with Yammer</t>
+  </si>
+  <si>
+    <t>Press login in Yammer with email and pass word not entered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Press login in the wab app login page </t>
+  </si>
+  <si>
+    <t>Bypassing the login page by typing the url of the home page</t>
+  </si>
+  <si>
+    <t>System allows user to login</t>
+  </si>
+  <si>
+    <t>System should awllow the user to login if they are in HR</t>
+  </si>
+  <si>
+    <t>The system redirects to login page</t>
+  </si>
+  <si>
+    <t>System does not allow the user to login</t>
+  </si>
+  <si>
+    <t>System denies login</t>
+  </si>
+  <si>
+    <t>Bypassing the login page to any other page(excludeing home page).</t>
+  </si>
+  <si>
+    <t>The system should redirect to login page</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1296,11 +1314,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1367,6 +1396,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2466,10 +2501,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,7 +2529,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2530,12 +2565,12 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>10</v>
       </c>
@@ -2546,81 +2581,100 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>228</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
